--- a/Data/GEF Sampling/Sampling June 2018/GEF_SS_Woody spp_2018.07.13.Mdoda.xlsx
+++ b/Data/GEF Sampling/Sampling June 2018/GEF_SS_Woody spp_2018.07.13.Mdoda.xlsx
@@ -15,7 +15,7 @@
     <sheet name="20 x 20m" sheetId="1" r:id="rId1"/>
     <sheet name="5x5m" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -566,8 +566,8 @@
   <dimension ref="A1:F1289"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1156" sqref="H1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26362,7 +26362,7 @@
   <dimension ref="A1:F517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="A518" sqref="A518"/>
+      <selection activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
